--- a/data/tehilim-data/4.xlsx
+++ b/data/tehilim-data/4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>original</t>
   </si>
@@ -217,10 +217,16 @@
     <t>Дрожите</t>
   </si>
   <si>
-    <t>וְאַל-תֶּחֱטָאוּ</t>
-  </si>
-  <si>
-    <t>и не грешите</t>
+    <t>וְאַל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и не </t>
+  </si>
+  <si>
+    <t>תֶּחֱטָאוּ</t>
+  </si>
+  <si>
+    <t>грешите</t>
   </si>
   <si>
     <t>אִמְרוּ</t>
@@ -340,10 +346,16 @@
     <t>в сердце мое</t>
   </si>
   <si>
-    <t>מֵעֵת דְּגָנָם</t>
-  </si>
-  <si>
-    <t>больше их хлеба</t>
+    <t xml:space="preserve">מֵעֵת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">больше их </t>
+  </si>
+  <si>
+    <t>דְּגָנָם</t>
+  </si>
+  <si>
+    <t>хлеба</t>
   </si>
   <si>
     <t>וְתִירוֹשָׁם</t>
@@ -1080,28 +1092,28 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="4">
-        <v>6.0</v>
+        <v>47</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="4" t="s">
         <v>80</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6.0</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -1136,17 +1148,17 @@
       <c r="A50" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="4">
-        <v>7.0</v>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="B51" s="4">
+        <v>7.0</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -1154,16 +1166,16 @@
       <c r="A52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
@@ -1204,28 +1216,28 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="4">
-        <v>8.0</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="B60" s="4">
+        <v>8.0</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -1278,26 +1290,26 @@
       <c r="A66" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="4">
-        <v>9.0</v>
+      <c r="B66" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="B68" s="4">
+        <v>9.0</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -1330,28 +1342,28 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -1363,6 +1375,24 @@
         <v>131</v>
       </c>
       <c r="C75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
